--- a/aoiConditions/train1P1Block9.xlsx
+++ b/aoiConditions/train1P1Block9.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
-  </si>
-  <si>
-    <t>pngimages/94_house.png</t>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
   </si>
 </sst>
 </file>

--- a/aoiConditions/train1P1Block9.xlsx
+++ b/aoiConditions/train1P1Block9.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
+    <t>trainingaudio/07_pitapi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.mp3</t>
   </si>
   <si>
     <t>pngimages/07_suitcase.png</t>

--- a/aoiConditions/train1P1Block9.xlsx
+++ b/aoiConditions/train1P1Block9.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/07_pitapi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.mp3</t>
+    <t>trainingaudio/07_pitapi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.ogg</t>
   </si>
   <si>
     <t>pngimages/07_suitcase.png</t>

--- a/aoiConditions/train1P1Block9.xlsx
+++ b/aoiConditions/train1P1Block9.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/07_pitapi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.ogg</t>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
   </si>
   <si>
     <t>pngimages/07_suitcase.png</t>
